--- a/mosip_master/xlsx/user_detail_h.xlsx
+++ b/mosip_master/xlsx/user_detail_h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\Elhadj-unir-masterdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91F63A4E-2CF4-4760-A5A4-2EB15E0BDACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D68588F-C4AA-4CDA-AAE1-F306729203FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260"/>
+    <workbookView xWindow="9516" yWindow="-96" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>lang_code</t>
   </si>
@@ -53,84 +53,12 @@
   </si>
   <si>
     <t>eff_dtimes</t>
-  </si>
-  <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>Mouctar</t>
-  </si>
-  <si>
-    <t>imouctar.diallo@wuriguinee.com</t>
-  </si>
-  <si>
-    <t>ACT</t>
-  </si>
-  <si>
-    <t>PWD</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>Sory</t>
-  </si>
-  <si>
-    <t>isory.conde@wuriguinee.com</t>
-  </si>
-  <si>
-    <t>Ferdiannd</t>
-  </si>
-  <si>
-    <t>ferdinand.goumou@wuriguinee.com</t>
-  </si>
-  <si>
-    <t>Hadja</t>
-  </si>
-  <si>
-    <t>Hadja.cherif@wuriguinee.co</t>
-  </si>
-  <si>
-    <t>Elhadj</t>
-  </si>
-  <si>
-    <t>esaidou.keita@wuriguinee.com</t>
-  </si>
-  <si>
-    <t>DT</t>
-  </si>
-  <si>
-    <t>dt@wuriguinee.com</t>
-  </si>
-  <si>
-    <t>Teli</t>
-  </si>
-  <si>
-    <t>iteli.bah@wuriguinee.com</t>
-  </si>
-  <si>
-    <t>lisbon</t>
-  </si>
-  <si>
-    <t>lisbon@mosip.io</t>
-  </si>
-  <si>
-    <t>madrid</t>
-  </si>
-  <si>
-    <t>madrid@mosip.io</t>
-  </si>
-  <si>
-    <t>berlin</t>
-  </si>
-  <si>
-    <t>berlin@mosip.io</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -613,48 +541,48 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,7 +598,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -965,16 +893,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,325 +937,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>910001</v>
-      </c>
-      <c r="C2">
-        <v>9317596808</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>620223365</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1">
-        <v>44039.285416666666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>910002</v>
-      </c>
-      <c r="C3">
-        <v>9317596854</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>620223365</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1">
-        <v>44039.285416666666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>910003</v>
-      </c>
-      <c r="C4">
-        <v>9317596855</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>620223365</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1">
-        <v>44039.285416666666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>910004</v>
-      </c>
-      <c r="C5">
-        <v>9317596868</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>620223365</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="1">
-        <v>44039.285416666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>910005</v>
-      </c>
-      <c r="C6">
-        <v>9317596869</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>620223365</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1">
-        <v>44039.285416666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>910006</v>
-      </c>
-      <c r="C7">
-        <v>9317596869</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7">
-        <v>620223365</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="1">
-        <v>44039.285416666666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>910007</v>
-      </c>
-      <c r="C8">
-        <v>9317596869</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8">
-        <v>620223365</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="1">
-        <v>44040.285416666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>9317596868</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>9876543213</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="1">
-        <v>44040.285416666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10">
-        <v>9317596869</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10">
-        <v>9876543214</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="1">
-        <v>44041.285416666666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11">
-        <v>9317596869</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11">
-        <v>9876543214</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="1">
-        <v>44042.285416666666</v>
-      </c>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mosip_master/xlsx/user_detail_h.xlsx
+++ b/mosip_master/xlsx/user_detail_h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\GUINEA_Pilot\GUINEA_Pilot_Mosip-Data_WuriGuinea-1.2.0.1-B1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D68588F-C4AA-4CDA-AAE1-F306729203FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3689FD8-51F6-4B9D-961A-F6680B8EA326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9516" yWindow="-96" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="49">
   <si>
     <t>lang_code</t>
   </si>
@@ -28,16 +28,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>uin</t>
-  </si>
-  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>mobile</t>
   </si>
   <si>
     <t>status_code</t>
@@ -53,6 +44,129 @@
   </si>
   <si>
     <t>eff_dtimes</t>
+  </si>
+  <si>
+    <t>last_login_dtimes</t>
+  </si>
+  <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>1103 (Rediet K)</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>globaladmin</t>
+  </si>
+  <si>
+    <t>chithara27</t>
+  </si>
+  <si>
+    <t>chithara27 (Chithara M S)</t>
+  </si>
+  <si>
+    <t>imouctar</t>
+  </si>
+  <si>
+    <t>imouctar (Ibrahima Mouctar DIALLO)</t>
+  </si>
+  <si>
+    <t>teli</t>
+  </si>
+  <si>
+    <t>teli (Ibrahima Teli Bah)</t>
+  </si>
+  <si>
+    <t>ekeita</t>
+  </si>
+  <si>
+    <t>ekeita (Elhadj KEITA)</t>
+  </si>
+  <si>
+    <t>ferdinand</t>
+  </si>
+  <si>
+    <t>ferdinand (Ferdinand Goumou)</t>
+  </si>
+  <si>
+    <t>condeis</t>
+  </si>
+  <si>
+    <t>condeis (Ibrahima Sory CONDE)</t>
+  </si>
+  <si>
+    <t>chithara</t>
+  </si>
+  <si>
+    <t>chithara (Chithara Gowda)</t>
+  </si>
+  <si>
+    <t>avanish</t>
+  </si>
+  <si>
+    <t>avanish (avanish avanish)</t>
+  </si>
+  <si>
+    <t>avanish123</t>
+  </si>
+  <si>
+    <t>avanish123 (Avanish Duggireddy)</t>
+  </si>
+  <si>
+    <t>avanish5</t>
+  </si>
+  <si>
+    <t>avanish5 (Avanish Duggireddy)</t>
+  </si>
+  <si>
+    <t>110036 (Test Test)</t>
+  </si>
+  <si>
+    <t>110027 (Tester 1)</t>
+  </si>
+  <si>
+    <t>110022 (Test 2)</t>
+  </si>
+  <si>
+    <t>110003 (Test 3)</t>
+  </si>
+  <si>
+    <t>100011 (test 11)</t>
+  </si>
+  <si>
+    <t>ganesh</t>
+  </si>
+  <si>
+    <t>ganesh (Ganesh Taru)</t>
+  </si>
+  <si>
+    <t>110010 (Test Device)</t>
+  </si>
+  <si>
+    <t>nambi</t>
+  </si>
+  <si>
+    <t>nambi (Nambi Rajan)</t>
   </si>
 </sst>
 </file>
@@ -538,7 +652,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -894,78 +1008,3914 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K11" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45079.634578506942</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45079.634579097219</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45079.634579166668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45079.634578506942</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45079.640190393518</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1">
+        <v>45079.640190393518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1103</v>
+      </c>
+      <c r="J4" s="1">
+        <v>45082.219611643515</v>
+      </c>
+      <c r="K4">
+        <v>1103</v>
+      </c>
+      <c r="L4" s="1">
+        <v>45082.219612233799</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="1">
+        <v>45082.21961226852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1103</v>
+      </c>
+      <c r="J5" s="1">
+        <v>45082.219611643515</v>
+      </c>
+      <c r="K5">
+        <v>1103</v>
+      </c>
+      <c r="L5" s="1">
+        <v>45082.219726828705</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="1">
+        <v>45082.219726828705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1103</v>
+      </c>
+      <c r="J6" s="1">
+        <v>45082.219611643515</v>
+      </c>
+      <c r="K6">
+        <v>1103</v>
+      </c>
+      <c r="L6" s="1">
+        <v>45086.188762233796</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="1">
+        <v>45086.188762303238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>10000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1103</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45082.219611643515</v>
+      </c>
+      <c r="K7">
+        <v>1103</v>
+      </c>
+      <c r="L7" s="1">
+        <v>45086.189114166664</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="1">
+        <v>45086.18911417824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1103</v>
+      </c>
+      <c r="J8" s="1">
+        <v>45079.634578506942</v>
+      </c>
+      <c r="K8">
+        <v>1103</v>
+      </c>
+      <c r="L8" s="1">
+        <v>45086.18918306713</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="1">
+        <v>45086.189183078706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>10000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="1">
+        <v>45093.477351319445</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="1">
+        <v>45093.477351469905</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="1">
+        <v>45093.477351527778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>10000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1">
+        <v>45093.477351319445</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1">
+        <v>45093.47747568287</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="1">
+        <v>45093.47747568287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>10000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1">
+        <v>45093.544087002316</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="1">
+        <v>45093.544087060189</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="1">
+        <v>45093.544087083334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1">
+        <v>45093.544087002316</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="1">
+        <v>45093.544167002314</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="1">
+        <v>45093.544167002314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="1">
+        <v>45096.531616192129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="1">
+        <v>45096.531616342596</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="1">
+        <v>45096.531616412038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>10000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="1">
+        <v>45096.531673206016</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1">
+        <v>45096.531673321762</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="1">
+        <v>45096.531673344907</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>10000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="1">
+        <v>45096.531673206016</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1">
+        <v>45096.53180420139</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="1">
+        <v>45096.53180420139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>10000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="1">
+        <v>45096.531673206016</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="1">
+        <v>45096.531829224536</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="1">
+        <v>45096.531829247688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>10000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="1">
+        <v>45096.531616192129</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="1">
+        <v>45096.532088506945</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="1">
+        <v>45096.532088506945</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>10000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="1">
+        <v>45096.533315347224</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="1">
+        <v>45096.533315416666</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="1">
+        <v>45096.533315451386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>10000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1">
+        <v>45096.533315347224</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="1">
+        <v>45096.533471932868</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="1">
+        <v>45096.533471932868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>10000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="1">
+        <v>45125.258274629632</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="1">
+        <v>45125.258274768516</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="1">
+        <v>45125.258274803244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>10000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="1">
+        <v>45125.258274629632</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="1">
+        <v>45125.258334953702</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="1">
+        <v>45125.258334953702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>10000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="1">
+        <v>45132.275695555552</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="1">
+        <v>45132.275695682867</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="1">
+        <v>45132.275695706019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>10000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="1">
+        <v>45132.275695555552</v>
+      </c>
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="1">
+        <v>45132.27580304398</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="1">
+        <v>45132.27580304398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>10000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="1">
+        <v>45082.219611643515</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="1">
+        <v>45132.280268113427</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="1">
+        <v>45132.280268125003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>10000</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="1">
+        <v>45134.367295706019</v>
+      </c>
+      <c r="K25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="1">
+        <v>45134.367295856478</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="1">
+        <v>45134.367295879631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>10000</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="1">
+        <v>45134.367295706019</v>
+      </c>
+      <c r="K26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="1">
+        <v>45134.36739550926</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="1">
+        <v>45134.36739550926</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>10000</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="1">
+        <v>45134.3865071412</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="1">
+        <v>45134.386507233794</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="1">
+        <v>45134.386507256946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>10000</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="1">
+        <v>45134.3865071412</v>
+      </c>
+      <c r="K28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="1">
+        <v>45134.386996990739</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="1">
+        <v>45134.386996990739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>10000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="1">
+        <v>45134.3865071412</v>
+      </c>
+      <c r="K29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="1">
+        <v>45134.421550879626</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="1">
+        <v>45134.421550891202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>10000</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="1">
+        <v>45134.3865071412</v>
+      </c>
+      <c r="K30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="1">
+        <v>45134.421550879626</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="1">
+        <v>45134.421861238428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>10016</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="1">
+        <v>45134.422264490742</v>
+      </c>
+      <c r="K31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="1">
+        <v>45134.422264583336</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="1">
+        <v>45134.422264594905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>10016</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="1">
+        <v>45134.422264490742</v>
+      </c>
+      <c r="K32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="1">
+        <v>45134.422840995372</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="1">
+        <v>45134.422840995372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>10016</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="1">
+        <v>45134.422264490742</v>
+      </c>
+      <c r="K33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="1">
+        <v>45134.428800648151</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="1">
+        <v>45134.428800648151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>10016</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="1">
+        <v>45134.422264490742</v>
+      </c>
+      <c r="K34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="1">
+        <v>45134.428800624999</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="1">
+        <v>45134.428920775463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>10016</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="1">
+        <v>45134.429206574074</v>
+      </c>
+      <c r="K35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="1">
+        <v>45134.429206643515</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="1">
+        <v>45134.429206666668</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>10016</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="1">
+        <v>45134.429206574074</v>
+      </c>
+      <c r="K36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="1">
+        <v>45134.429313993052</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="1">
+        <v>45134.429313993052</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>10016</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="1">
+        <v>45134.429206574074</v>
+      </c>
+      <c r="K37" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="1">
+        <v>45134.429313981484</v>
+      </c>
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37" s="1">
+        <v>45134.432790995372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>10000</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="1">
+        <v>45134.433087881946</v>
+      </c>
+      <c r="K38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="1">
+        <v>45134.433087951387</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="1">
+        <v>45134.433087962963</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>10000</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="1">
+        <v>45134.367295706019</v>
+      </c>
+      <c r="K39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="1">
+        <v>45134.367395486108</v>
+      </c>
+      <c r="M39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>16</v>
+      </c>
+      <c r="O39" s="1">
+        <v>45134.437055243056</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>10000</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="1">
+        <v>45134.433087881946</v>
+      </c>
+      <c r="K40" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="1">
+        <v>45134.433087951387</v>
+      </c>
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="1">
+        <v>45134.437140138885</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>10000</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="1">
+        <v>45134.437789016207</v>
+      </c>
+      <c r="K41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" s="1">
+        <v>45134.437789085649</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="1">
+        <v>45134.437789097225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>10000</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="1">
+        <v>45134.437937650466</v>
+      </c>
+      <c r="K42" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="1">
+        <v>45134.437937731484</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" s="1">
+        <v>45134.437937743052</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>10000</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="1">
+        <v>45134.437789016207</v>
+      </c>
+      <c r="K43" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="1">
+        <v>45134.43808753472</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43" s="1">
+        <v>45134.438087546296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <v>10000</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="1">
+        <v>45134.437789016207</v>
+      </c>
+      <c r="K44" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" s="1">
+        <v>45134.438170416666</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" s="1">
+        <v>45134.438170416666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>10000</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="1">
+        <v>45134.437937650466</v>
+      </c>
+      <c r="K45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="1">
+        <v>45134.438238634262</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="1">
+        <v>45134.438238634262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46">
+        <v>10000</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="1">
+        <v>45132.275695555552</v>
+      </c>
+      <c r="K46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" s="1">
+        <v>45134.445419201387</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46" s="1">
+        <v>45134.445419212963</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>10000</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="1">
+        <v>45132.275695555552</v>
+      </c>
+      <c r="K47" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" s="1">
+        <v>45134.445419201387</v>
+      </c>
+      <c r="M47" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="1">
+        <v>45134.451047337963</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <v>10000</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="1">
+        <v>45134.451292361111</v>
+      </c>
+      <c r="K48" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="1">
+        <v>45134.451292418984</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="1">
+        <v>45134.451292430553</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>10000</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="1">
+        <v>45134.451292361111</v>
+      </c>
+      <c r="K49" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="1">
+        <v>45134.451404513886</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="1">
+        <v>45134.451404513886</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>10000</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="1">
+        <v>45134.451292361111</v>
+      </c>
+      <c r="K50" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="1">
+        <v>45134.455978310187</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>16</v>
+      </c>
+      <c r="O50" s="1">
+        <v>45134.455978310187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>10000</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="1">
+        <v>45134.451292361111</v>
+      </c>
+      <c r="K51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="1">
+        <v>45134.455978310187</v>
+      </c>
+      <c r="M51" t="b">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O51" s="1">
+        <v>45134.456083194447</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>10000</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="1">
+        <v>45134.456218240739</v>
+      </c>
+      <c r="K52" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="1">
+        <v>45134.456218298612</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" s="1">
+        <v>45134.456218310188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>10000</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="1">
+        <v>45134.456218240739</v>
+      </c>
+      <c r="K53" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="1">
+        <v>45134.456218298612</v>
+      </c>
+      <c r="M53" t="b">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>16</v>
+      </c>
+      <c r="O53" s="1">
+        <v>45134.456354374997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>10000</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="1">
+        <v>45134.456456678243</v>
+      </c>
+      <c r="K54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="1">
+        <v>45134.456456736109</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54" s="1">
+        <v>45134.456456747685</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <v>10000</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="1">
+        <v>45134.456456678243</v>
+      </c>
+      <c r="K55" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="1">
+        <v>45134.456540416664</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>16</v>
+      </c>
+      <c r="O55" s="1">
+        <v>45134.456540416664</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <v>10000</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="1">
+        <v>45134.456456678243</v>
+      </c>
+      <c r="K56" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="1">
+        <v>45134.473077106479</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>16</v>
+      </c>
+      <c r="O56" s="1">
+        <v>45134.473077118055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <v>10016</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" s="1">
+        <v>45134.437937650466</v>
+      </c>
+      <c r="K57" t="s">
+        <v>33</v>
+      </c>
+      <c r="L57" s="1">
+        <v>45135.47696010417</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>16</v>
+      </c>
+      <c r="O57" s="1">
+        <v>45135.476960115739</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58">
+        <v>10016</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" s="1">
+        <v>45134.437937650466</v>
+      </c>
+      <c r="K58" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" s="1">
+        <v>45135.477051932867</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>16</v>
+      </c>
+      <c r="O58" s="1">
+        <v>45135.477051944443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59">
+        <v>10000</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" s="1">
+        <v>45134.437937650466</v>
+      </c>
+      <c r="K59" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" s="1">
+        <v>45135.489985069442</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>16</v>
+      </c>
+      <c r="O59" s="1">
+        <v>45135.489985081018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>10000</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" s="1">
+        <v>45134.437937650466</v>
+      </c>
+      <c r="K60" t="s">
+        <v>33</v>
+      </c>
+      <c r="L60" s="1">
+        <v>45135.490660173615</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>16</v>
+      </c>
+      <c r="O60" s="1">
+        <v>45135.490660185184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61">
+        <v>10000</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" s="1">
+        <v>45134.456456678243</v>
+      </c>
+      <c r="K61" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61" s="1">
+        <v>45135.491182164355</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>16</v>
+      </c>
+      <c r="O61" s="1">
+        <v>45135.491182175923</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>10000</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="1">
+        <v>45125.258274629632</v>
+      </c>
+      <c r="K62" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="1">
+        <v>45154.504140868055</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O62" s="1">
+        <v>45154.504141701385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>110036</v>
+      </c>
+      <c r="B63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>10000</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="1">
+        <v>45154.510034212966</v>
+      </c>
+      <c r="K63" t="s">
+        <v>19</v>
+      </c>
+      <c r="L63" s="1">
+        <v>45154.510034363426</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>16</v>
+      </c>
+      <c r="O63" s="1">
+        <v>45154.510034398147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>110036</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64">
+        <v>10000</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="1">
+        <v>45154.510034212966</v>
+      </c>
+      <c r="K64" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="1">
+        <v>45154.510090381948</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>16</v>
+      </c>
+      <c r="O64" s="1">
+        <v>45154.510090381948</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>110027</v>
+      </c>
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65">
+        <v>10000</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="1">
+        <v>45154.548777372685</v>
+      </c>
+      <c r="K65" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" s="1">
+        <v>45154.548777453703</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>16</v>
+      </c>
+      <c r="O65" s="1">
+        <v>45154.548777488424</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>110027</v>
+      </c>
+      <c r="B66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66">
+        <v>10000</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="1">
+        <v>45154.548777372685</v>
+      </c>
+      <c r="K66" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" s="1">
+        <v>45154.548826574071</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>16</v>
+      </c>
+      <c r="O66" s="1">
+        <v>45154.548826574071</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>110022</v>
+      </c>
+      <c r="B67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67">
+        <v>10000</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="1">
+        <v>45155.185735231484</v>
+      </c>
+      <c r="K67" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67" s="1">
+        <v>45155.185735312501</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>16</v>
+      </c>
+      <c r="O67" s="1">
+        <v>45155.185735335646</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>110022</v>
+      </c>
+      <c r="B68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68">
+        <v>10000</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="1">
+        <v>45155.185735231484</v>
+      </c>
+      <c r="K68" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" s="1">
+        <v>45155.185788518516</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>16</v>
+      </c>
+      <c r="O68" s="1">
+        <v>45155.185788518516</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>110003</v>
+      </c>
+      <c r="B69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>10000</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="1">
+        <v>45163.406603229167</v>
+      </c>
+      <c r="K69" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69" s="1">
+        <v>45163.406603298608</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>16</v>
+      </c>
+      <c r="O69" s="1">
+        <v>45163.40660332176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>110003</v>
+      </c>
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <v>10000</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="1">
+        <v>45163.406603229167</v>
+      </c>
+      <c r="K70" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70" s="1">
+        <v>45163.406656712963</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>16</v>
+      </c>
+      <c r="O70" s="1">
+        <v>45163.406656712963</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>110022</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71">
+        <v>10000</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" s="1">
+        <v>45155.185735231484</v>
+      </c>
+      <c r="K71" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" s="1">
+        <v>45155.185788506948</v>
+      </c>
+      <c r="M71" t="b">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>16</v>
+      </c>
+      <c r="O71" s="1">
+        <v>45163.475461909722</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>110027</v>
+      </c>
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72">
+        <v>10000</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72" s="1">
+        <v>45154.548777372685</v>
+      </c>
+      <c r="K72" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="1">
+        <v>45154.548826562503</v>
+      </c>
+      <c r="M72" t="b">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>16</v>
+      </c>
+      <c r="O72" s="1">
+        <v>45163.475836331017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>110036</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73">
+        <v>10000</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" s="1">
+        <v>45154.510034212966</v>
+      </c>
+      <c r="K73" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73" s="1">
+        <v>45154.510090347219</v>
+      </c>
+      <c r="M73" t="b">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>16</v>
+      </c>
+      <c r="O73" s="1">
+        <v>45163.475887673609</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>100011</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74">
+        <v>10000</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" s="1">
+        <v>45163.477689791667</v>
+      </c>
+      <c r="K74" t="s">
+        <v>19</v>
+      </c>
+      <c r="L74" s="1">
+        <v>45163.477689872685</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>16</v>
+      </c>
+      <c r="O74" s="1">
+        <v>45163.47768989583</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>100011</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75">
+        <v>10000</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75" s="1">
+        <v>45163.477689791667</v>
+      </c>
+      <c r="K75" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75" s="1">
+        <v>45163.477808136573</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>16</v>
+      </c>
+      <c r="O75" s="1">
+        <v>45163.477808136573</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76">
+        <v>10000</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" s="1">
+        <v>45169.44125314815</v>
+      </c>
+      <c r="K76" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76" s="1">
+        <v>45169.441253275465</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>16</v>
+      </c>
+      <c r="O76" s="1">
+        <v>45169.441253344907</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77">
+        <v>10000</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" s="1">
+        <v>45169.44125314815</v>
+      </c>
+      <c r="K77" t="s">
+        <v>19</v>
+      </c>
+      <c r="L77" s="1">
+        <v>45169.441304224536</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
+        <v>16</v>
+      </c>
+      <c r="O77" s="1">
+        <v>45169.441304224536</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>110010</v>
+      </c>
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78">
+        <v>10000</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" s="1">
+        <v>45176.257005520834</v>
+      </c>
+      <c r="K78" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78" s="1">
+        <v>45176.257005590276</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>16</v>
+      </c>
+      <c r="O78" s="1">
+        <v>45176.257005613428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>110010</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79">
+        <v>10000</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" s="1">
+        <v>45176.257005520834</v>
+      </c>
+      <c r="K79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79" s="1">
+        <v>45176.257060185184</v>
+      </c>
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>16</v>
+      </c>
+      <c r="O79" s="1">
+        <v>45176.257060185184</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>110010</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80">
+        <v>10000</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="1">
+        <v>45176.257005520834</v>
+      </c>
+      <c r="K80" t="s">
+        <v>19</v>
+      </c>
+      <c r="L80" s="1">
+        <v>45176.264835856484</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
+        <v>16</v>
+      </c>
+      <c r="O80" s="1">
+        <v>45176.264835868053</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>110010</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81">
+        <v>10000</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="1">
+        <v>45176.257005520834</v>
+      </c>
+      <c r="K81" t="s">
+        <v>19</v>
+      </c>
+      <c r="L81" s="1">
+        <v>45176.265883969907</v>
+      </c>
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>16</v>
+      </c>
+      <c r="O81" s="1">
+        <v>45176.265883993059</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82">
+        <v>10000</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J82" s="1">
+        <v>45191.306733171295</v>
+      </c>
+      <c r="K82" t="s">
+        <v>19</v>
+      </c>
+      <c r="L82" s="1">
+        <v>45191.306733310186</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
+        <v>16</v>
+      </c>
+      <c r="O82" s="1">
+        <v>45191.306733368052</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83">
+        <v>10000</v>
+      </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" s="1">
+        <v>45191.306733171295</v>
+      </c>
+      <c r="K83" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" s="1">
+        <v>45191.306813240742</v>
+      </c>
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>16</v>
+      </c>
+      <c r="O83" s="1">
+        <v>45191.306813240742</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
